--- a/Day_7/Plots_data/Population in Poland - projections.xlsx
+++ b/Day_7/Plots_data/Population in Poland - projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\educa\Documents\GitHub\Python-CodersLab\Day_7\Plots_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DAD5C8-D68B-4DE5-9EC2-D7FE610BB863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F03B9-7CFB-4939-A2BA-38225F908753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="936" windowWidth="21600" windowHeight="11388" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="natural and migratory movement" sheetId="1" r:id="rId1"/>
@@ -6250,16 +6250,16 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="2" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>2014</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>-8831</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2015</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>-5115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2016</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2017</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>-1553</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>2018</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2019</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2020</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2021</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>5736</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>2022</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2023</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>9174</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2024</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>10826</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>2025</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>12440</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>2026</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>14012</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2027</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>15521</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2028</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>16986</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>2029</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>2030</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>19787</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2031</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>21042</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>2032</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>22252</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>2033</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>23386</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>2034</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>24459</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>2035</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>25467</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>2036</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>26431</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>2037</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>27357</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>2038</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>28246</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>2039</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>29088</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>2040</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>29918</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>2041</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>30697</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>2042</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>31466</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>2043</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>32218</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>2044</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>32929</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2045</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>33630</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>2046</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>34330</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>2047</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>35003</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>2048</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>35673</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>2049</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>36333</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>2050</v>
       </c>
@@ -7196,14 +7196,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>169</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>935926</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>170</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>974252</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>171</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>871519</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>172</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>987921</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>173</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>1228768</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>174</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>1409281</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>175</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>1549098</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>176</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>1471216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>177</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1280761</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>178</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>1139114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>179</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>1245701</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>180</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>1498648</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>181</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>1424280</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>182</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>1091736</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>183</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>722401</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>184</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>718174</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>185</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>574613</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>186</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>340662</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>187</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>122167</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>188</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>18150</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>189</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>33</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>919262</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>191</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>996372</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>193</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>866906</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>195</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>957321</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>197</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>1175971</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>199</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>1367988</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>201</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>1546482</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>203</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>1488393</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>205</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>1325712</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>207</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1145211</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>209</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>1201207</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>211</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>1456441</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>213</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>1449354</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>215</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1197069</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>217</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>708157</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>219</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>711757</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>221</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>573053</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>223</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>356942</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>225</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>137214</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>227</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>21693</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>229</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>34</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>914831</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>232</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>1000237</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>234</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>873979</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>236</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>928844</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>238</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>1122709</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>240</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1337242</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>242</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1534911</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>244</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>1490183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>246</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>1372142</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>248</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>1162931</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>250</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>1170371</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>252</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>1402875</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>254</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>1457867</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>256</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>1257410</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>258</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>758449</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>260</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>696160</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>262</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>575222</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>264</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>370487</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>266</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>148569</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>268</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>25929</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>270</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>35</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>908758</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>273</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>994515</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>275</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>896993</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>277</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>901886</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>279</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>1075437</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>281</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>1304029</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>283</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>1499665</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>285</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>1505890</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>287</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>1407403</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>289</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>1191038</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>291</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>1148356</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>293</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1337530</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>295</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1466031</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>297</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>1300843</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>299</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>836341</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>301</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>673825</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>303</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>575194</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>305</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>381877</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>307</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>156821</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>309</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>31944</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>311</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>36</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>909735</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>314</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>966800</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>316</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>934999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>318</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>882096</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>320</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1029021</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>322</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>1265180</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>324</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>1450125</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>326</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>1530861</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>328</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>1435255</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>330</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>1226907</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>332</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>1131059</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>334</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>1276491</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>336</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1464698</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>338</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>1332849</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>340</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>926000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>342</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>655140</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>344</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>577764</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>346</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>384798</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>348</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>166500</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>350</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>37945</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>352</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>37</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>909577</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
         <v>355</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>937290</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>357</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>971441</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>359</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>869866</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>361</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>986433</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
         <v>363</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1225597</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>365</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>1402733</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>367</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>1539324</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>369</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>1460386</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
         <v>371</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>1268655</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
         <v>373</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>1124254</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>375</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>1220718</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
         <v>377</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1452090</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
         <v>379</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>1358344</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="s">
         <v>381</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>1017652</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="s">
         <v>383</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>641563</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
         <v>385</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>577595</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
         <v>387</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>387358</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
         <v>389</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>176414</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
         <v>391</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="s">
         <v>393</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
         <v>38</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>901933</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="s">
         <v>396</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>921123</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="s">
         <v>398</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>993557</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
         <v>400</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>865400</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
         <v>402</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>956206</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
         <v>404</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>1173704</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
         <v>406</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>1362556</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
         <v>408</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>1537204</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
         <v>410</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>1477688</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
         <v>412</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>1313275</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
         <v>414</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>1130649</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
         <v>416</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>1177964</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
         <v>418</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>1412401</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
         <v>420</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>1383943</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
         <v>422</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>1116719</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
         <v>424</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>630536</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
         <v>426</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>573800</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
         <v>428</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>388276</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="s">
         <v>430</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>186819</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
         <v>432</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>48756</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
         <v>434</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>4763</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
         <v>39</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>891489</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
         <v>437</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>916619</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
         <v>439</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>997404</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
         <v>441</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>872441</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
         <v>443</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>927971</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
         <v>445</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>1121182</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
         <v>447</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>1332349</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
         <v>449</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>1525853</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
         <v>451</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1479504</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
         <v>453</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>1359153</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>455</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>1148308</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
         <v>457</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>1148339</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
         <v>459</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>1361520</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
         <v>461</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>1393722</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
         <v>463</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>1174631</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
         <v>465</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>678003</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
         <v>467</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>562460</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
         <v>469</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>391671</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="s">
         <v>471</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>195294</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
         <v>473</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>53200</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="s">
         <v>475</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="s">
         <v>40</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>878957</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
         <v>478</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>910863</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
         <v>480</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>991864</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="23" t="s">
         <v>482</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>895416</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
         <v>484</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>901358</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="23" t="s">
         <v>486</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>1074789</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="s">
         <v>488</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>1300105</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="s">
         <v>490</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>1491561</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
         <v>492</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>1495321</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
         <v>494</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>1394203</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
         <v>496</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>1176318</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>498</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>1127437</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
         <v>500</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>1299353</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
         <v>502</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>1403271</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
         <v>504</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>1216980</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
         <v>506</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>749831</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
         <v>508</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>545362</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
         <v>510</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>393387</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
         <v>512</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>202515</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
         <v>514</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>56762</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
         <v>516</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>7065</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
         <v>41</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>864670</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
         <v>519</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>912083</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="23" t="s">
         <v>521</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>964482</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
         <v>523</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>933286</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
         <v>525</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>881856</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="23" t="s">
         <v>527</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>1029226</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="23" t="s">
         <v>529</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>1262291</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
         <v>531</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>1443143</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
         <v>533</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>1520273</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
         <v>535</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>1421945</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
         <v>537</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1211955</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
         <v>539</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>1111143</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
         <v>541</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>1241338</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
         <v>543</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1403711</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
         <v>545</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>1248802</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
         <v>547</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>831960</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="23" t="s">
         <v>549</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>531540</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="s">
         <v>551</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>396450</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="s">
         <v>553</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>205256</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="23" t="s">
         <v>555</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>61121</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="23" t="s">
         <v>557</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>8434</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="23" t="s">
         <v>42</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>849129</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="23" t="s">
         <v>560</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>912170</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="23" t="s">
         <v>562</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>935306</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="23" t="s">
         <v>564</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>969603</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="23" t="s">
         <v>566</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>869853</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
         <v>568</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>987446</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
         <v>570</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>1223742</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>572</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>1396816</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
         <v>574</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>1528933</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="23" t="s">
         <v>576</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>1447006</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
         <v>578</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1253374</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
         <v>580</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>1105092</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="23" t="s">
         <v>582</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>1188362</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>584</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>1393282</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="23" t="s">
         <v>586</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1274550</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="23" t="s">
         <v>588</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>915422</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="23" t="s">
         <v>590</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>522274</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
         <v>592</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>397731</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="23" t="s">
         <v>594</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>208175</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="23" t="s">
         <v>596</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>65633</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="23" t="s">
         <v>598</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>9713</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="23" t="s">
         <v>43</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>832866</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="23" t="s">
         <v>601</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>904825</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
         <v>603</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>919365</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="23" t="s">
         <v>605</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>991690</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="23" t="s">
         <v>607</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>865566</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="23" t="s">
         <v>609</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>957862</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="23" t="s">
         <v>611</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>1173055</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
         <v>613</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>1357570</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>615</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>1527148</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="23" t="s">
         <v>617</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>1464348</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="23" t="s">
         <v>619</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>1297624</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="23" t="s">
         <v>621</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>1111949</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="23" t="s">
         <v>623</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>1147907</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
         <v>625</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>1356876</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="23" t="s">
         <v>627</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>1300566</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="23" t="s">
         <v>629</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>1004905</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="23" t="s">
         <v>631</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>515238</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="23" t="s">
         <v>633</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>396641</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
         <v>635</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>210762</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="23" t="s">
         <v>637</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>70676</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="23" t="s">
         <v>639</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>11322</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="23" t="s">
         <v>44</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>816403</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="23" t="s">
         <v>642</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>894687</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="23" t="s">
         <v>644</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>915003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="23" t="s">
         <v>646</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>995621</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="23" t="s">
         <v>648</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>872700</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="23" t="s">
         <v>650</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>930233</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="23" t="s">
         <v>652</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>1121738</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="23" t="s">
         <v>654</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>1328139</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
         <v>656</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>1516239</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
         <v>658</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>1466416</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="23" t="s">
         <v>660</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>1343118</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="23" t="s">
         <v>662</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>1129824</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="23" t="s">
         <v>664</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>1120112</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="23" t="s">
         <v>666</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>1309619</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="23" t="s">
         <v>668</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>1311811</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="23" t="s">
         <v>670</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1058708</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="23" t="s">
         <v>672</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>557852</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="23" t="s">
         <v>674</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>390189</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="23" t="s">
         <v>676</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>214678</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="23" t="s">
         <v>678</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>74751</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
         <v>680</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>12640</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="23" t="s">
         <v>45</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>800202</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="23" t="s">
         <v>683</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>882465</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="23" t="s">
         <v>685</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>909389</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="23" t="s">
         <v>687</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>990213</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="23" t="s">
         <v>689</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>895647</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="23" t="s">
         <v>691</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>904182</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="23" t="s">
         <v>693</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>1076429</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="23" t="s">
         <v>695</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>1296699</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="23" t="s">
         <v>697</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>1482678</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="23" t="s">
         <v>699</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>1482288</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
         <v>701</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>1377958</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="23" t="s">
         <v>703</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1157834</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="23" t="s">
         <v>705</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>1100737</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="23" t="s">
         <v>707</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>1251494</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="23" t="s">
         <v>709</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>1322864</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="23" t="s">
         <v>711</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>1098702</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="23" t="s">
         <v>713</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>619853</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="23" t="s">
         <v>715</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>379416</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="23" t="s">
         <v>717</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>217547</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="23" t="s">
         <v>719</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>78324</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="23" t="s">
         <v>721</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>13913</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
         <v>46</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>784634</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="23" t="s">
         <v>724</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>868494</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="23" t="s">
         <v>726</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>910701</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="23" t="s">
         <v>728</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>963099</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="23" t="s">
         <v>730</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>933374</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="23" t="s">
         <v>732</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>885146</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="23" t="s">
         <v>734</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1031918</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="23" t="s">
         <v>736</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>1259757</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="23" t="s">
         <v>738</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>1435153</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="23" t="s">
         <v>740</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1507169</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="23" t="s">
         <v>742</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>1405610</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
         <v>744</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>1193324</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="23" t="s">
         <v>746</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>1085832</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="23" t="s">
         <v>748</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>1197320</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="23" t="s">
         <v>750</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>1325289</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="23" t="s">
         <v>752</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>1129400</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="23" t="s">
         <v>754</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>689770</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="23" t="s">
         <v>756</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>371301</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="23" t="s">
         <v>758</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>220883</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="23" t="s">
         <v>760</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>80181</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="23" t="s">
         <v>762</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>15490</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="23" t="s">
         <v>47</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>769992</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="23" t="s">
         <v>765</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>853270</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="23" t="s">
         <v>767</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>910889</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="23" t="s">
         <v>769</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>934194</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="23" t="s">
         <v>771</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>969542</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="23" t="s">
         <v>773</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>873518</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="23" t="s">
         <v>775</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>991112</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="23" t="s">
         <v>777</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>1222076</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="23" t="s">
         <v>779</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>1389676</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="23" t="s">
         <v>781</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>1515975</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="23" t="s">
         <v>783</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>1430640</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="23" t="s">
         <v>785</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>1234496</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
         <v>787</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>1080879</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="23" t="s">
         <v>789</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>1147892</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="23" t="s">
         <v>791</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>1317339</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="23" t="s">
         <v>793</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>1154586</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="23" t="s">
         <v>795</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>759868</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="23" t="s">
         <v>797</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>366784</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="23" t="s">
         <v>799</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>223327</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="23" t="s">
         <v>801</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>82355</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="23" t="s">
         <v>803</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>17143</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="23" t="s">
         <v>48</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>756502</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="23" t="s">
         <v>806</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>837322</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
         <v>808</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>903687</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="23" t="s">
         <v>810</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>918432</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="23" t="s">
         <v>812</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>991560</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="23" t="s">
         <v>814</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>869530</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="23" t="s">
         <v>816</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>962299</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="23" t="s">
         <v>818</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>1172419</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="23" t="s">
         <v>820</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1351178</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="23" t="s">
         <v>822</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>1514462</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="23" t="s">
         <v>824</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>1448085</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="23" t="s">
         <v>826</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>1278473</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="23" t="s">
         <v>828</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>1088490</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="23" t="s">
         <v>830</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>1110388</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="23" t="s">
         <v>832</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>1284814</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="23" t="s">
         <v>834</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>1180289</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="23" t="s">
         <v>836</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>833825</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="23" t="s">
         <v>838</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>363933</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="23" t="s">
         <v>840</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>224552</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="23" t="s">
         <v>842</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>84720</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="23" t="s">
         <v>844</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>19098</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="23" t="s">
         <v>49</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>744347</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="23" t="s">
         <v>847</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>821164</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="23" t="s">
         <v>849</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>893711</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
         <v>851</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>914177</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="23" t="s">
         <v>853</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>995528</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="23" t="s">
         <v>855</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>876825</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="23" t="s">
         <v>857</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>935395</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="23" t="s">
         <v>859</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>1122114</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="23" t="s">
         <v>861</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>1322358</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="23" t="s">
         <v>863</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>1503922</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="23" t="s">
         <v>865</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>1450464</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="23" t="s">
         <v>867</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>1323615</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="23" t="s">
         <v>869</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>1106737</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="23" t="s">
         <v>871</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>1084834</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="23" t="s">
         <v>873</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>1241773</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="23" t="s">
         <v>875</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>1192756</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="23" t="s">
         <v>877</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>880441</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="23" t="s">
         <v>879</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>398203</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="23" t="s">
         <v>881</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>222530</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="23" t="s">
         <v>883</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>87565</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="23" t="s">
         <v>885</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>20685</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="23" t="s">
         <v>50</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>733695</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="23" t="s">
         <v>888</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>805260</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="23" t="s">
         <v>890</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>881662</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="23" t="s">
         <v>892</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>908677</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
         <v>894</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>990235</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="23" t="s">
         <v>896</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>899725</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="23" t="s">
         <v>898</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>910032</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="23" t="s">
         <v>900</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>1077717</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="23" t="s">
         <v>902</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>1291553</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="23" t="s">
         <v>904</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>1471028</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="23" t="s">
         <v>906</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>1466410</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="23" t="s">
         <v>908</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>1358250</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="23" t="s">
         <v>910</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>1134767</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="23" t="s">
         <v>912</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>1067204</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="23" t="s">
         <v>914</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>1188356</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="23" t="s">
         <v>916</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>1205101</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="23" t="s">
         <v>918</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>916027</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="23" t="s">
         <v>920</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>445712</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="23" t="s">
         <v>922</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>217728</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="23" t="s">
         <v>924</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>89847</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="23" t="s">
         <v>926</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>22135</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="23" t="s">
         <v>51</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>724705</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="23" t="s">
         <v>929</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>789975</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="23" t="s">
         <v>931</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>867872</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="23" t="s">
         <v>933</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>910056</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="23" t="s">
         <v>935</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>963402</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
         <v>937</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>937223</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="23" t="s">
         <v>939</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>891564</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="23" t="s">
         <v>941</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>1034095</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="23" t="s">
         <v>943</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>1255307</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="23" t="s">
         <v>945</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>1424360</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="23" t="s">
         <v>947</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>1491212</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="23" t="s">
         <v>949</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>1385790</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="23" t="s">
         <v>951</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>1170020</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="23" t="s">
         <v>953</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>1053758</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="23" t="s">
         <v>955</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>1138599</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="23" t="s">
         <v>957</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>1209484</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="23" t="s">
         <v>959</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>944302</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="23" t="s">
         <v>961</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>498527</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="23" t="s">
         <v>963</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>214712</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="23" t="s">
         <v>965</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>92130</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="23" t="s">
         <v>967</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="23" t="s">
         <v>52</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>717490</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="23" t="s">
         <v>970</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>775604</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="23" t="s">
         <v>972</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>852836</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="23" t="s">
         <v>974</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>910314</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="23" t="s">
         <v>976</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>934806</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="23" t="s">
         <v>978</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>973144</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="23" t="s">
         <v>980</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>880382</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="23" t="s">
         <v>982</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>994113</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="23" t="s">
         <v>984</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>1218320</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="23" t="s">
         <v>986</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>1379707</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="23" t="s">
         <v>988</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>1500157</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="23" t="s">
         <v>990</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>1410721</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="23" t="s">
         <v>992</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>1210754</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="23" t="s">
         <v>994</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>1049806</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="23" t="s">
         <v>996</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>1093161</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="23" t="s">
         <v>998</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>1204155</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="23" t="s">
         <v>1000</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>968031</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
         <v>1002</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>550927</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="23" t="s">
         <v>1004</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>214103</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="23" t="s">
         <v>1006</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>94065</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="23" t="s">
         <v>1008</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>24437</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="23" t="s">
         <v>53</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>712086</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="23" t="s">
         <v>1011</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>762360</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="23" t="s">
         <v>1013</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>837078</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="23" t="s">
         <v>1015</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>903221</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="23" t="s">
         <v>1017</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>919262</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="23" t="s">
         <v>1019</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>995032</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="23" t="s">
         <v>1021</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>876708</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="23" t="s">
         <v>1023</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>965936</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="23" t="s">
         <v>1025</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>1169502</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="23" t="s">
         <v>1027</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>1341931</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="23" t="s">
         <v>1029</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>1498924</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="23" t="s">
         <v>1031</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>1428179</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="23" t="s">
         <v>1033</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>1254173</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="23" t="s">
         <v>1035</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>1057898</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="23" t="s">
         <v>1037</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>1058769</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="23" t="s">
         <v>1039</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>1176305</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="23" t="s">
         <v>1041</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>992726</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="23" t="s">
         <v>1043</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>605615</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="23" t="s">
         <v>1045</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>214567</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="23" t="s">
         <v>1047</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>95524</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="23" t="s">
         <v>1049</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>25839</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="23" t="s">
         <v>54</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>708428</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="23" t="s">
         <v>1052</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>750435</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="23" t="s">
         <v>1054</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>821107</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="23" t="s">
         <v>1056</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>893372</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="23" t="s">
         <v>1058</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>915133</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="23" t="s">
         <v>1060</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>999046</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="23" t="s">
         <v>1062</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>884128</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="23" t="s">
         <v>1064</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>939633</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>1066</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>1120024</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="23" t="s">
         <v>1068</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>1313694</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="23" t="s">
         <v>1070</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>1488762</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="23" t="s">
         <v>1072</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>1430849</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="23" t="s">
         <v>1074</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>1298758</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="23" t="s">
         <v>1076</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>1076302</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="23" t="s">
         <v>1078</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>1035617</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="23" t="s">
         <v>1080</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>1138636</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="23" t="s">
         <v>1082</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>1006470</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="23" t="s">
         <v>1084</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>642535</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="23" t="s">
         <v>1086</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>238646</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="23" t="s">
         <v>1088</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>95524</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="23" t="s">
         <v>1090</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>27312</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="23" t="s">
         <v>55</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>706352</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="23" t="s">
         <v>1093</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>739995</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="23" t="s">
         <v>1095</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>805383</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="23" t="s">
         <v>1097</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>881459</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="23" t="s">
         <v>1099</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>909770</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="23" t="s">
         <v>1101</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>993930</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="23" t="s">
         <v>1103</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>906898</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="23" t="s">
         <v>1105</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>914842</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="23" t="s">
         <v>1107</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>1076371</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="23" t="s">
         <v>1109</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>1283480</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="23" t="s">
         <v>1111</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>1456584</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="23" t="s">
         <v>1113</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>1446847</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="23" t="s">
         <v>1115</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>1333071</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="23" t="s">
         <v>1117</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>1104204</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="23" t="s">
         <v>1119</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>1019939</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="23" t="s">
         <v>1121</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>1091605</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="23" t="s">
         <v>1123</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>1020167</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="23" t="s">
         <v>1125</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>671743</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="23" t="s">
         <v>1127</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>270228</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="23" t="s">
         <v>1129</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>94175</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="23" t="s">
         <v>1131</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>28594</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="23" t="s">
         <v>56</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>705598</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="23" t="s">
         <v>1134</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>731198</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="23" t="s">
         <v>1136</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>790273</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="23" t="s">
         <v>1138</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>867818</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="23" t="s">
         <v>1140</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>911218</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="23" t="s">
         <v>1142</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>967558</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="23" t="s">
         <v>1144</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>944034</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="23" t="s">
         <v>1146</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>896834</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="23" t="s">
         <v>1148</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>1033473</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="23" t="s">
         <v>1150</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>1247886</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="23" t="s">
         <v>1152</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>1410856</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="23" t="s">
         <v>1154</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>1471551</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="23" t="s">
         <v>1156</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>1360462</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="23" t="s">
         <v>1158</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>1139130</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="23" t="s">
         <v>1160</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>1008287</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="23" t="s">
         <v>1162</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>1048089</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="23" t="s">
         <v>1164</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>1026975</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="23" t="s">
         <v>1166</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>695959</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="23" t="s">
         <v>1168</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>304703</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="23" t="s">
         <v>1170</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>93850</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="23" t="s">
         <v>1172</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>29798</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="23" t="s">
         <v>57</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>705861</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="23" t="s">
         <v>1175</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>724155</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="23" t="s">
         <v>1177</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>776061</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="23" t="s">
         <v>1179</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>852936</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="23" t="s">
         <v>1181</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>911540</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="23" t="s">
         <v>1183</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>939465</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="23" t="s">
         <v>1185</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>979598</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="23" t="s">
         <v>1187</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>885993</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="23" t="s">
         <v>1189</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>994153</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="23" t="s">
         <v>1191</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>1211548</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="23" t="s">
         <v>1193</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>1367104</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="23" t="s">
         <v>1195</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>1480672</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="23" t="s">
         <v>1197</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>1385330</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="23" t="s">
         <v>1199</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>1179405</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="23" t="s">
         <v>1201</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>1005696</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="23" t="s">
         <v>1203</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>1008511</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="23" t="s">
         <v>1205</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>1025199</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="23" t="s">
         <v>1207</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>716866</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="23" t="s">
         <v>1209</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>338418</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="23" t="s">
         <v>1211</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>94835</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="23" t="s">
         <v>1213</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>30991</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="23" t="s">
         <v>58</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>706819</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="23" t="s">
         <v>1216</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>718904</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="23" t="s">
         <v>1218</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>762972</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="23" t="s">
         <v>1220</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>837329</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="23" t="s">
         <v>1222</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>904567</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="23" t="s">
         <v>1224</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>924288</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="23" t="s">
         <v>1226</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>1001332</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="23" t="s">
         <v>1228</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>882536</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="23" t="s">
         <v>1230</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>966484</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="23" t="s">
         <v>1232</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>1163520</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="23" t="s">
         <v>1234</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>1330125</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="23" t="s">
         <v>1236</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>1479778</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="23" t="s">
         <v>1238</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>1402915</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="23" t="s">
         <v>1240</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>1222331</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="23" t="s">
         <v>1242</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>1014633</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="23" t="s">
         <v>1244</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>978875</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="23" t="s">
         <v>1246</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>1004234</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="23" t="s">
         <v>1248</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>739059</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="23" t="s">
         <v>1250</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>373032</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="23" t="s">
         <v>1252</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>96357</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="23" t="s">
         <v>1254</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>32129</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="23" t="s">
         <v>59</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>708158</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="23" t="s">
         <v>1257</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>715375</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="23" t="s">
         <v>1259</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>751185</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="23" t="s">
         <v>1261</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>821509</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="23" t="s">
         <v>1263</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>894856</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="23" t="s">
         <v>1265</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>920359</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="23" t="s">
         <v>1267</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>1005457</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="23" t="s">
         <v>1269</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>890007</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="23" t="s">
         <v>1271</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>940659</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="23" t="s">
         <v>1273</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>1114828</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="23" t="s">
         <v>1275</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>1302528</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="23" t="s">
         <v>1277</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>1470078</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="23" t="s">
         <v>1279</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>1406032</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="23" t="s">
         <v>1281</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>1266440</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="23" t="s">
         <v>1283</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>1033458</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="23" t="s">
         <v>1285</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>959394</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="23" t="s">
         <v>1287</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>974600</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="23" t="s">
         <v>1289</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>753260</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="23" t="s">
         <v>1291</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>398468</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="23" t="s">
         <v>1293</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>109821</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="23" t="s">
         <v>1295</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>32852</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="23" t="s">
         <v>60</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>709563</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="23" t="s">
         <v>1298</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>713411</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="23" t="s">
         <v>1300</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>740871</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="23" t="s">
         <v>1302</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>805931</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="23" t="s">
         <v>1304</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>883094</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="23" t="s">
         <v>1306</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>915207</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="23" t="s">
         <v>1308</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>1000601</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="23" t="s">
         <v>1310</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>912611</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="23" t="s">
         <v>1312</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>916319</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="23" t="s">
         <v>1314</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>1071878</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="23" t="s">
         <v>1316</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>1272955</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="23" t="s">
         <v>1318</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>1438747</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="23" t="s">
         <v>1320</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>1422210</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="23" t="s">
         <v>1322</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>1300566</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="23" t="s">
         <v>1324</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>1061399</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="23" t="s">
         <v>1326</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>946703</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="23" t="s">
         <v>1328</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>937249</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="23" t="s">
         <v>1330</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>767556</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="23" t="s">
         <v>1332</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>419438</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="23" t="s">
         <v>1334</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>126381</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="23" t="s">
         <v>1336</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>33131</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="23" t="s">
         <v>61</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>710763</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="23" t="s">
         <v>1339</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>712757</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="23" t="s">
         <v>1341</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>732185</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="23" t="s">
         <v>1343</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>790961</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="23" t="s">
         <v>1345</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>869615</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="23" t="s">
         <v>1347</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>916754</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="23" t="s">
         <v>1349</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>974816</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="23" t="s">
         <v>1351</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>949370</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="23" t="s">
         <v>1353</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>898672</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="23" t="s">
         <v>1355</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>1029667</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="23" t="s">
         <v>1357</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>1238066</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="23" t="s">
         <v>1359</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>1394122</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="23" t="s">
         <v>1361</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>1446932</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="23" t="s">
         <v>1363</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>1327987</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="23" t="s">
         <v>1365</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>1096119</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="23" t="s">
         <v>1367</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>937824</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="23" t="s">
         <v>1369</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>903230</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="23" t="s">
         <v>1371</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>776541</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="23" t="s">
         <v>1373</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>437635</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="23" t="s">
         <v>1375</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>144006</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="23" t="s">
         <v>1377</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>33809</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="23" t="s">
         <v>62</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>711506</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="23" t="s">
         <v>1380</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>713110</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="23" t="s">
         <v>1382</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>725241</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="23" t="s">
         <v>1384</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>776883</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="23" t="s">
         <v>1386</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>854895</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="23" t="s">
         <v>1388</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>917177</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="23" t="s">
         <v>1390</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>947334</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="23" t="s">
         <v>1392</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>984597</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="23" t="s">
         <v>1394</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>888096</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="23" t="s">
         <v>1396</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>990980</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="23" t="s">
         <v>1398</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>1202433</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="23" t="s">
         <v>1400</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>1351416</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="23" t="s">
         <v>1402</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>1456385</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="23" t="s">
         <v>1404</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>1353008</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="23" t="s">
         <v>1406</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>1136023</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="23" t="s">
         <v>1408</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>937367</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="23" t="s">
         <v>1410</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>872573</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="23" t="s">
         <v>1412</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>778741</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="23" t="s">
         <v>1414</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>453827</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="23" t="s">
         <v>1416</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>160876</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="23" t="s">
         <v>1418</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>34957</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="23" t="s">
         <v>63</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>711591</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="23" t="s">
         <v>1421</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>714155</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="23" t="s">
         <v>1423</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>720068</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="23" t="s">
         <v>1425</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>763915</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="23" t="s">
         <v>1427</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>839455</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="23" t="s">
         <v>1429</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>910397</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="23" t="s">
         <v>1431</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>932563</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="23" t="s">
         <v>1433</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>1006202</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="23" t="s">
         <v>1435</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>884808</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="23" t="s">
         <v>1437</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>963791</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="23" t="s">
         <v>1439</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>1155267</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="23" t="s">
         <v>1441</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>1315363</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="23" t="s">
         <v>1443</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>1456012</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="23" t="s">
         <v>1445</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>1370969</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="23" t="s">
         <v>1447</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>1178561</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="23" t="s">
         <v>1449</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>947662</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="23" t="s">
         <v>1451</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>850138</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="23" t="s">
         <v>1453</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>766314</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="23" t="s">
         <v>1455</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>471377</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="23" t="s">
         <v>1457</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>177857</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="23" t="s">
         <v>1459</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>36254</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="23" t="s">
         <v>64</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>710867</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="23" t="s">
         <v>1462</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>715565</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="23" t="s">
         <v>1464</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>716609</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="23" t="s">
         <v>1466</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>752246</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="23" t="s">
         <v>1468</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>823805</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="23" t="s">
         <v>1470</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>900910</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="23" t="s">
         <v>1472</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>928857</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="23" t="s">
         <v>1474</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>1010457</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="23" t="s">
         <v>1476</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>892315</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="23" t="s">
         <v>1478</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>938417</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="23" t="s">
         <v>1480</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>1107440</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="23" t="s">
         <v>1482</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>1288517</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="23" t="s">
         <v>1484</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>1446966</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="23" t="s">
         <v>1486</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>1374848</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="23" t="s">
         <v>1488</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>1222312</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="23" t="s">
         <v>1490</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>967215</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="23" t="s">
         <v>1492</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>836185</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="23" t="s">
         <v>1494</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>746994</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="23" t="s">
         <v>1496</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>484013</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="23" t="s">
         <v>1498</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>191701</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="23" t="s">
         <v>1500</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="23" t="s">
         <v>65</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>709250</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="23" t="s">
         <v>1503</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>717044</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="23" t="s">
         <v>1505</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>714701</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="23" t="s">
         <v>1507</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>742040</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="23" t="s">
         <v>1509</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>808392</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="23" t="s">
         <v>1511</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>889391</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="23" t="s">
         <v>1513</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>923937</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="23" t="s">
         <v>1515</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>1005842</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="23" t="s">
         <v>1517</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>914773</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="23" t="s">
         <v>1519</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>914506</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="23" t="s">
         <v>1521</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>1065265</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="23" t="s">
         <v>1523</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>1259693</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="23" t="s">
         <v>1525</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>1416721</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="23" t="s">
         <v>1527</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>1391483</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="23" t="s">
         <v>1529</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>1256451</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="23" t="s">
         <v>1531</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>995311</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="23" t="s">
         <v>1533</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>827965</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="23" t="s">
         <v>1535</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>722055</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="23" t="s">
         <v>1537</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>496867</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="23" t="s">
         <v>1539</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>203599</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="23" t="s">
         <v>1541</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>47574</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="23" t="s">
         <v>66</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>706726</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="23" t="s">
         <v>1544</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>718316</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="23" t="s">
         <v>1546</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>714096</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="23" t="s">
         <v>1548</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>733445</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="23" t="s">
         <v>1550</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>793583</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="23" t="s">
         <v>1552</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>876171</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="23" t="s">
         <v>1554</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>925611</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="23" t="s">
         <v>1556</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>980567</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="23" t="s">
         <v>1558</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>951222</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="23" t="s">
         <v>1560</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>897201</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="23" t="s">
         <v>1562</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>1023805</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="23" t="s">
         <v>1564</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>1225635</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="23" t="s">
         <v>1566</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>1373456</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="23" t="s">
         <v>1568</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>1416493</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="23" t="s">
         <v>1570</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>1284172</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="23" t="s">
         <v>1572</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>1029813</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="23" t="s">
         <v>1574</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>823225</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="23" t="s">
         <v>1576</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>700001</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="23" t="s">
         <v>1578</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>506209</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="23" t="s">
         <v>1580</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>214402</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="23" t="s">
         <v>1582</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>53898</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="23" t="s">
         <v>67</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>703358</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="23" t="s">
         <v>1585</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>719135</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="23" t="s">
         <v>1587</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>714487</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="23" t="s">
         <v>1589</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>726582</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="23" t="s">
         <v>1591</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>779659</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="23" t="s">
         <v>1593</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>861728</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="23" t="s">
         <v>1595</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>926178</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="23" t="s">
         <v>1597</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>953599</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="23" t="s">
         <v>1599</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>986163</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="23" t="s">
         <v>1601</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>886883</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="23" t="s">
         <v>1603</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>985814</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="23" t="s">
         <v>1605</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>1190829</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="23" t="s">
         <v>1607</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>1332046</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="23" t="s">
         <v>1609</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>1426595</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="23" t="s">
         <v>1611</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>1309668</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="23" t="s">
         <v>1613</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>1069264</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="23" t="s">
         <v>1615</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>825904</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="23" t="s">
         <v>1617</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>680478</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="23" t="s">
         <v>1619</v>
       </c>
@@ -20038,7 +20038,7 @@
         <v>510889</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="23" t="s">
         <v>1621</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>224294</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="23" t="s">
         <v>1623</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>60038</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="31" t="s">
         <v>68</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>699229</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="31" t="s">
         <v>1626</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>719297</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="31" t="s">
         <v>1628</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>715568</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="31" t="s">
         <v>1630</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>721479</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="31" t="s">
         <v>1632</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>766836</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="31" t="s">
         <v>1634</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>846573</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="31" t="s">
         <v>1636</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>919651</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="31" t="s">
         <v>1638</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>939158</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="31" t="s">
         <v>1640</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>1007655</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="31" t="s">
         <v>1642</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>883766</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="31" t="s">
         <v>1644</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>959156</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="31" t="s">
         <v>1646</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>1144659</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="31" t="s">
         <v>1648</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>1297152</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="31" t="s">
         <v>1650</v>
       </c>
@@ -20310,7 +20310,7 @@
         <v>1427086</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="31" t="s">
         <v>1652</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>1328425</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="31" t="s">
         <v>1654</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>1111330</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="31" t="s">
         <v>1656</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>838110</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="31" t="s">
         <v>1658</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>666960</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="31" t="s">
         <v>1660</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>505941</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="31" t="s">
         <v>1662</v>
       </c>
@@ -20412,7 +20412,7 @@
         <v>235314</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="31" t="s">
         <v>1664</v>
       </c>
@@ -20447,13 +20447,13 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>1666</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>2023</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>165474</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>2023</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>169669</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>2023</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>173449</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2023</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>176687</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>2023</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>179391</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>2023</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>181529</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>2023</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>183083</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>2023</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>184121</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>2023</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>184168</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>2023</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>179182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>2023</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>180053</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>2023</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>188473</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>2023</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>188186</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>2023</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>199787</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>2023</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>207983</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>2023</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>206987</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>2023</v>
       </c>
@@ -20759,7 +20759,7 @@
         <v>193569</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>2023</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>183929</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>2023</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>177382</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>2023</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>171419</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>2023</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>168980</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>2023</v>
       </c>
@@ -20844,7 +20844,7 @@
         <v>170541</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>2023</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>176868</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>2023</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>181832</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>2023</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>183635</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>2023</v>
       </c>
@@ -20912,7 +20912,7 @@
         <v>188716</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>2023</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>197350</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>2023</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>205221</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>2023</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>212046</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>2023</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>225893</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>2023</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>234477</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>2023</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>243595</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>2023</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>257148</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>2023</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>262906</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>2023</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>264165</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>2023</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>271631</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>2023</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>274842</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>2023</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>286041</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>2023</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>301328</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>2023</v>
       </c>
@@ -21150,7 +21150,7 @@
         <v>309301</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>2023</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>318434</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>2023</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>307146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>2023</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>295207</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>2023</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>301091</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>2023</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>298395</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>2023</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>291112</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>2023</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>288819</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>2023</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>290622</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>2023</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>280971</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>2023</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>270421</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>2023</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>260370</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>2023</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>250737</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>2023</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>241778</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>2023</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>233391</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>2023</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>225679</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>2023</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>221367</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>2023</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>219221</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>2023</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>220323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>2023</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>222727</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>2023</v>
       </c>
@@ -21490,7 +21490,7 @@
         <v>227505</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>2023</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>232801</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>2023</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>234472</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>2023</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>243272</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>2023</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>257400</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>2023</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>273393</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>2023</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>282056</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>2023</v>
       </c>
@@ -21609,7 +21609,7 @@
         <v>285974</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>2023</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>281716</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>2023</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>282950</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>2023</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>271015</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>2023</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>267309</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>2023</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>260766</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>2023</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>254810</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>2023</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>239437</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>2023</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>226480</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>2023</v>
       </c>
@@ -21762,7 +21762,7 @@
         <v>215458</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>2023</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>197564</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>2023</v>
       </c>
@@ -21796,7 +21796,7 @@
         <v>176154</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>2023</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>123630</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>2023</v>
       </c>
@@ -21830,7 +21830,7 @@
         <v>119154</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>2023</v>
       </c>
@@ -21847,7 +21847,7 @@
         <v>111456</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>2023</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>105257</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>2023</v>
       </c>
@@ -21881,7 +21881,7 @@
         <v>107242</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>2023</v>
       </c>
@@ -21898,7 +21898,7 @@
         <v>106655</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>2023</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>100930</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>2023</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>94099</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>2023</v>
       </c>
@@ -21949,7 +21949,7 @@
         <v>87345</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>2023</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>80825</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>2023</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>71779</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>2023</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>62402</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>2023</v>
       </c>
@@ -22017,7 +22017,7 @@
         <v>53677</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>2023</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>48392</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>2023</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>41199</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>2023</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>35093</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>2023</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>26895</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>2023</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>20775</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>2023</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>15113</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>2023</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>11330</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>2023</v>
       </c>
@@ -22153,7 +22153,7 @@
         <v>8496</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>2023</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>2023</v>
       </c>
